--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>name</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>lol</t>
-  </si>
-  <si>
-    <t>manuser</t>
-  </si>
-  <si>
-    <t>loluser</t>
   </si>
 </sst>
 </file>
@@ -411,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
